--- a/examples/wd/profile.xlsx
+++ b/examples/wd/profile.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>7705</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="R2" t="n">
